--- a/results/non_gpcr_2/summary_of_methods.xlsx
+++ b/results/non_gpcr_2/summary_of_methods.xlsx
@@ -12,6 +12,7 @@
     <sheet name="joint_nbglm" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="phenotype_nbglm" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="dm" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ccd_dm" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +479,7 @@
         <v>104</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -492,6 +493,19 @@
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ccd_dm</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -15536,28 +15550,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2645628095069159</v>
+        <v>-0.2765828320499483</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3735287547610089</v>
+        <v>-0.3752033834097522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.108965945254093</v>
+        <v>0.09862055135980391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3462079152341007</v>
+        <v>0.3329648684527539</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3147413460504271</v>
+        <v>0.2961890598791437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7529580488657679</v>
+        <v>0.7670857031671944</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0.830289431088905</v>
+        <v>0.8310095117644606</v>
       </c>
     </row>
     <row r="3">
@@ -15572,28 +15586,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.827033157038118</v>
+        <v>-1.853979736922265</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.729289430628487</v>
+        <v>-1.733667114180721</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09774372640963125</v>
+        <v>-0.1203126227415445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6846601541985426</v>
+        <v>0.6580503738022954</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1427623994331162</v>
+        <v>-0.1828319343492862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8864778337402528</v>
+        <v>0.854929890940027</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.9198277286126767</v>
+        <v>0.8891270865776281</v>
       </c>
     </row>
     <row r="4">
@@ -15608,28 +15622,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.233790670429209</v>
+        <v>2.25450144377319</v>
       </c>
       <c r="D4" t="n">
-        <v>3.167964106083099</v>
+        <v>3.163125627486921</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9341734356538893</v>
+        <v>-0.9086241837137314</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6258935780302816</v>
+        <v>0.5997399567967209</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.492543570416204</v>
+        <v>-1.515030261726759</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1355567039814796</v>
+        <v>0.1297647407068094</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.2073220178540277</v>
+        <v>0.1984637210810026</v>
       </c>
     </row>
     <row r="5">
@@ -15644,28 +15658,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.238050612483982</v>
+        <v>2.264698178686733</v>
       </c>
       <c r="D5" t="n">
-        <v>2.400579872393011</v>
+        <v>2.335519601427117</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1625292599090291</v>
+        <v>-0.07082142274038361</v>
       </c>
       <c r="F5" t="n">
-        <v>1.614784795103185</v>
+        <v>1.556884013119212</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1006507247293244</v>
+        <v>-0.04548920930756629</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9198277286126766</v>
+        <v>0.9637173757215618</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.9198277286126767</v>
+        <v>0.9637173757215618</v>
       </c>
     </row>
     <row r="6">
@@ -15680,28 +15694,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3948382356080369</v>
+        <v>-0.3958011521683018</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.768068110229908</v>
+        <v>-1.786501262046638</v>
       </c>
       <c r="E6" t="n">
-        <v>1.373229874621871</v>
+        <v>1.390700109878336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6974995367154254</v>
+        <v>0.6700652125366963</v>
       </c>
       <c r="G6" t="n">
-        <v>1.968789658396775</v>
+        <v>2.075469795862853</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04897725035087098</v>
+        <v>0.03794301536332689</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.09095775065161756</v>
+        <v>0.07046559996046421</v>
       </c>
     </row>
     <row r="7">
@@ -15716,28 +15730,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.535112392708194</v>
+        <v>-4.497181063712963</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.050226608865809</v>
+        <v>-1.021431902995788</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.484885783842384</v>
+        <v>-3.475749160717176</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5072790811554587</v>
+        <v>0.4888883758655843</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.869760479585832</v>
+        <v>-7.109494380109384</v>
       </c>
       <c r="H7" t="n">
-        <v>6.430978980979559e-12</v>
+        <v>1.164688432552428e-12</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.672054535054685e-10</v>
+        <v>3.028189924636313e-11</v>
       </c>
     </row>
     <row r="8">
@@ -15752,28 +15766,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.586720935991897</v>
+        <v>-2.595045761708426</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.514094644685178</v>
+        <v>-3.513057275369547</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9273737086932807</v>
+        <v>0.9180115136611207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3905408568004739</v>
+        <v>0.3751688669523933</v>
       </c>
       <c r="G8" t="n">
-        <v>2.374588196202665</v>
+        <v>2.446928821995272</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01756853848643445</v>
+        <v>0.01440792893885282</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.0351370769728689</v>
+        <v>0.02881585787770565</v>
       </c>
     </row>
     <row r="9">
@@ -15788,28 +15802,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.666198105590746</v>
+        <v>-1.702185671986154</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.18177193376014</v>
+        <v>-3.185255868464403</v>
       </c>
       <c r="E9" t="n">
-        <v>1.515573828169394</v>
+        <v>1.483070196478249</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4226763442443753</v>
+        <v>0.408484525710114</v>
       </c>
       <c r="G9" t="n">
-        <v>3.585660396677292</v>
+        <v>3.630664329083369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003362262716791444</v>
+        <v>0.0002826926481027622</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.001092735382957219</v>
+        <v>0.0008992331326102122</v>
       </c>
     </row>
     <row r="10">
@@ -15824,28 +15838,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.255201991721537</v>
+        <v>-3.256267772122472</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.616561394429175</v>
+        <v>-2.622972632898853</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6386405972923619</v>
+        <v>-0.6332951392236184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4955374228246218</v>
+        <v>0.4792099084452051</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.288783788824737</v>
+        <v>-1.321540160299152</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1974732634097659</v>
+        <v>0.1863213209348028</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.2852391582585507</v>
+        <v>0.2691307969058263</v>
       </c>
     </row>
     <row r="11">
@@ -15860,28 +15874,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.31964002609088</v>
+        <v>-2.306672331314411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7449049725667334</v>
+        <v>0.7699076051815006</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.064544998657613</v>
+        <v>-3.076579936495912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5779207557214602</v>
+        <v>0.5545302090313101</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.302707972188887</v>
+        <v>-5.548083560443504</v>
       </c>
       <c r="H11" t="n">
-        <v>1.140973646318139e-07</v>
+        <v>2.88817844232826e-08</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.237902114895947e-07</v>
+        <v>1.251543991675579e-07</v>
       </c>
     </row>
     <row r="12">
@@ -15896,28 +15910,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.506626721459265</v>
+        <v>-1.507020049498057</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.364717565494732</v>
+        <v>-1.358208958992117</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1419091559645334</v>
+        <v>-0.1488110905059397</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4777127541928656</v>
+        <v>0.4576830356250868</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2970595922319477</v>
+        <v>-0.3251400618393009</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7664210133128353</v>
+        <v>0.7450750697510291</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.830289431088905</v>
+        <v>0.8310095117644606</v>
       </c>
     </row>
     <row r="13">
@@ -15932,28 +15946,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.860083293080007</v>
+        <v>-0.8350643207953123</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.231073663382708</v>
+        <v>-1.23194995805206</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3709903703027012</v>
+        <v>0.3968856372567475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4287563788299565</v>
+        <v>0.4114301970237055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8652707892419131</v>
+        <v>0.9646487791314938</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3868901796177637</v>
+        <v>0.3347207584419631</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.5029572335030928</v>
+        <v>0.4351369859745521</v>
       </c>
     </row>
     <row r="14">
@@ -15968,28 +15982,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.578094927087217</v>
+        <v>3.631319977681816</v>
       </c>
       <c r="D14" t="n">
-        <v>9.532971367345613</v>
+        <v>9.566702345781041</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.954876440258396</v>
+        <v>-5.935382368099225</v>
       </c>
       <c r="F14" t="n">
-        <v>1.046975245617895</v>
+        <v>1.008346974403853</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.68769554503077</v>
+        <v>-5.886249990097203</v>
       </c>
       <c r="H14" t="n">
-        <v>1.28765120489376e-08</v>
+        <v>3.950566188091187e-09</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>8.369732831809439e-08</v>
+        <v>2.567868022259271e-08</v>
       </c>
     </row>
     <row r="15">
@@ -16004,28 +16018,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7587124919957557</v>
+        <v>0.7235820520025658</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.403838116189807</v>
+        <v>-1.412041262769299</v>
       </c>
       <c r="E15" t="n">
-        <v>2.162550608185562</v>
+        <v>2.135623314771864</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4028282503858003</v>
+        <v>0.3869809351020669</v>
       </c>
       <c r="G15" t="n">
-        <v>5.368418441642127</v>
+        <v>5.518678366438362</v>
       </c>
       <c r="H15" t="n">
-        <v>7.943009566457667e-08</v>
+        <v>3.415586778135725e-08</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3.441970812131656e-07</v>
+        <v>1.268646517593269e-07</v>
       </c>
     </row>
     <row r="16">
@@ -16040,28 +16054,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1844930978981443</v>
+        <v>0.1769026067643771</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.890798150218666</v>
+        <v>-4.948072020550809</v>
       </c>
       <c r="E16" t="n">
-        <v>5.075291248116811</v>
+        <v>5.124974627315185</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8908327509684618</v>
+        <v>0.8574336904233619</v>
       </c>
       <c r="G16" t="n">
-        <v>5.697243666220452</v>
+        <v>5.977108999279822</v>
       </c>
       <c r="H16" t="n">
-        <v>1.217598493693875e-08</v>
+        <v>2.271322354665763e-09</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>8.369732831809439e-08</v>
+        <v>1.968479374043661e-08</v>
       </c>
     </row>
     <row r="17">
@@ -16076,28 +16090,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.793201669812335</v>
+        <v>-1.817407996749055</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5854528967131825</v>
+        <v>-0.5226924197397288</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.207748773099153</v>
+        <v>-1.294715577009326</v>
       </c>
       <c r="F17" t="n">
-        <v>1.536671098002785</v>
+        <v>1.483050284884686</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.7859513819638224</v>
+        <v>-0.8730085488031823</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4318959706196772</v>
+        <v>0.3826584181104881</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.5347283445767432</v>
+        <v>0.4737675652796519</v>
       </c>
     </row>
     <row r="18">
@@ -16112,28 +16126,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.8108949639593169</v>
+        <v>-0.8084721038588835</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.065607407196207</v>
+        <v>-4.085790067439686</v>
       </c>
       <c r="E18" t="n">
-        <v>3.254712443236889</v>
+        <v>3.277317963580803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5601313726454221</v>
+        <v>0.5413622527022653</v>
       </c>
       <c r="G18" t="n">
-        <v>5.810623368345426</v>
+        <v>6.053835388820948</v>
       </c>
       <c r="H18" t="n">
-        <v>6.224064656189723e-09</v>
+        <v>1.414371437583988e-09</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>8.091284053046639e-08</v>
+        <v>1.838682868859185e-08</v>
       </c>
     </row>
     <row r="19">
@@ -16148,28 +16162,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9917915576319498</v>
+        <v>1.019194236823546</v>
       </c>
       <c r="D19" t="n">
-        <v>2.174947770119461</v>
+        <v>2.187151364546228</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.183156212487512</v>
+        <v>-1.167957127722682</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4377579779696568</v>
+        <v>0.420401122900131</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.702763335062559</v>
+        <v>-2.778196974512215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00687656892759362</v>
+        <v>0.005466147122373013</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.01787907921174341</v>
+        <v>0.01421198251816983</v>
       </c>
     </row>
     <row r="20">
@@ -16184,28 +16198,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.100130101202551</v>
+        <v>5.096857611204086</v>
       </c>
       <c r="D20" t="n">
-        <v>2.554248959946047</v>
+        <v>2.538797242053561</v>
       </c>
       <c r="E20" t="n">
-        <v>2.545881141256504</v>
+        <v>2.558060369150525</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4645445360812177</v>
+        <v>0.4475152631512922</v>
       </c>
       <c r="G20" t="n">
-        <v>5.480381198179457</v>
+        <v>5.716141056591668</v>
       </c>
       <c r="H20" t="n">
-        <v>4.244104192615397e-08</v>
+        <v>1.089702930607864e-08</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>2.206934180160006e-07</v>
+        <v>5.666455239160891e-08</v>
       </c>
     </row>
     <row r="21">
@@ -16220,28 +16234,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.094491877770426</v>
+        <v>1.085247018020179</v>
       </c>
       <c r="D21" t="n">
-        <v>2.140820276432287</v>
+        <v>2.163542149631207</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.046328398661861</v>
+        <v>-1.078295131611027</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5811113936270552</v>
+        <v>0.5578177085089957</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.800564246608752</v>
+        <v>-1.933060057367537</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07177158874135202</v>
+        <v>0.05322879982607694</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.116628831704697</v>
+        <v>0.09226325303186671</v>
       </c>
     </row>
     <row r="22">
@@ -16256,28 +16270,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-2.472513991985934</v>
+        <v>-2.501462048044504</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.364331540908673</v>
+        <v>-4.379740513134236</v>
       </c>
       <c r="E22" t="n">
-        <v>1.89181754892274</v>
+        <v>1.878278465089731</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7643322515493093</v>
+        <v>0.7339922564215684</v>
       </c>
       <c r="G22" t="n">
-        <v>2.475124587622734</v>
+        <v>2.55898948341349</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01331897044740266</v>
+        <v>0.01049769170782682</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.03148120287567902</v>
+        <v>0.02415407241843303</v>
       </c>
     </row>
     <row r="23">
@@ -16292,28 +16306,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2.060759381630624</v>
+        <v>-2.097029184700801</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.113579231626527</v>
+        <v>-3.108359848063274</v>
       </c>
       <c r="E23" t="n">
-        <v>1.052819849995903</v>
+        <v>1.011330663362473</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5823741313172051</v>
+        <v>0.5608358310851441</v>
       </c>
       <c r="G23" t="n">
-        <v>1.807806688828452</v>
+        <v>1.80325615324128</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07063659237709456</v>
+        <v>0.07134799529245002</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.116628831704697</v>
+        <v>0.1159404923502313</v>
       </c>
     </row>
     <row r="24">
@@ -16328,28 +16342,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4776571705755112</v>
+        <v>0.4676255686206385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2339916347055748</v>
+        <v>0.2123462424113982</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2436655358699364</v>
+        <v>0.2552793262092403</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4279709933795853</v>
+        <v>0.4099614915383317</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5693505859959516</v>
+        <v>0.6226909880031294</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5691182437503792</v>
+        <v>0.533487606003457</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.67259428806863</v>
+        <v>0.6304853525495401</v>
       </c>
     </row>
     <row r="25">
@@ -16364,28 +16378,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.6205607079760633</v>
+        <v>-0.6068852151299358</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1156871700150609</v>
+        <v>-0.09695643711144254</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5048735379610024</v>
+        <v>-0.5099287780184932</v>
       </c>
       <c r="F25" t="n">
-        <v>0.475005464632606</v>
+        <v>0.4565839821033388</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.062879430979806</v>
+        <v>-1.116834575907398</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2878366320255329</v>
+        <v>0.2640650622018774</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.3938817069823082</v>
+        <v>0.3613521903815164</v>
       </c>
     </row>
     <row r="26">
@@ -16400,28 +16414,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-2.094168911820599</v>
+        <v>-2.091137583138145</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7731778089524937</v>
+        <v>-0.7610768684721011</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.320991102868105</v>
+        <v>-1.330060714666044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5461398975541837</v>
+        <v>0.5240536364706774</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.418777878679056</v>
+        <v>-2.538024015296506</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01557274618482443</v>
+        <v>0.01114803342389217</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.0337409500671196</v>
+        <v>0.02415407241843303</v>
       </c>
     </row>
     <row r="27">
@@ -16436,28 +16450,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-4.006388128858678</v>
+        <v>-4.00948841998553</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.527994403693536</v>
+        <v>-2.535908973774761</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.478393725165142</v>
+        <v>-1.473579446210769</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4233063297602374</v>
+        <v>0.4086768014765022</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.492491421053192</v>
+        <v>-3.605733041089918</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0004785369674413987</v>
+        <v>0.0003112730074419965</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.001382440128164041</v>
+        <v>0.0008992331326102122</v>
       </c>
     </row>
     <row r="28">
@@ -16473,27 +16487,27 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>-0.3735287547610089</v>
+        <v>-0.3752033834097522</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3667975598094292</v>
+        <v>0.3211914937628399</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3470379726052686</v>
+        <v>0.3142732968693424</v>
       </c>
       <c r="G28" t="n">
-        <v>1.056937824572401</v>
+        <v>1.022013314406326</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2905399643736924</v>
+        <v>0.3067745987912672</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.006731194951579689</v>
+        <v>-0.05401188964691228</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.3597161463674287</v>
+        <v>0.3625517985714976</v>
       </c>
     </row>
     <row r="29">
@@ -16509,27 +16523,27 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>-1.729289430628487</v>
+        <v>-1.733667114180721</v>
       </c>
       <c r="E29" t="n">
-        <v>1.061152834131477</v>
+        <v>0.8692381476314794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6907213857559936</v>
+        <v>0.6251628485178995</v>
       </c>
       <c r="G29" t="n">
-        <v>1.536296480772846</v>
+        <v>1.390418751997531</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1244656822414499</v>
+        <v>0.1644017554573286</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6681365964970105</v>
+        <v>-0.8644289665492413</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.1903592787222175</v>
+        <v>0.2137222820945272</v>
       </c>
     </row>
     <row r="30">
@@ -16545,27 +16559,27 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>3.167964106083099</v>
+        <v>3.163125627486921</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.193562095535861</v>
+        <v>-1.028813167925956</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6300366986898948</v>
+        <v>0.5662690532598899</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.894432654506899</v>
+        <v>-1.816827463911896</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05816760550021003</v>
+        <v>0.06924353614686295</v>
       </c>
       <c r="I30" t="n">
-        <v>1.974402010547238</v>
+        <v>2.134312459560965</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.1080255530718186</v>
+        <v>0.1200221293212291</v>
       </c>
     </row>
     <row r="31">
@@ -16581,27 +16595,27 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>2.400579872393011</v>
+        <v>2.335519601427117</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.682354684624666</v>
+        <v>-3.287905673023788</v>
       </c>
       <c r="F31" t="n">
-        <v>1.609669381722765</v>
+        <v>1.467587084935857</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.287646597765057</v>
+        <v>-2.240347919910653</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02215810993118827</v>
+        <v>0.0250683445261572</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.281774812231655</v>
+        <v>-0.952386071596671</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.05237371438280863</v>
+        <v>0.05925245069818975</v>
       </c>
     </row>
     <row r="32">
@@ -16617,27 +16631,27 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>-1.768068110229908</v>
+        <v>-1.786501262046638</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1280636910874007</v>
+        <v>0.2675938720077147</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7047801667519612</v>
+        <v>0.6377900327207192</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1817072856598576</v>
+        <v>0.41956421122826</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8558124480325977</v>
+        <v>0.6748038375655663</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.640004419142507</v>
+        <v>-1.518907390038923</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.8558124480325977</v>
+        <v>0.6889192207141406</v>
       </c>
     </row>
     <row r="33">
@@ -16653,27 +16667,27 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>-1.050226608865809</v>
+        <v>-1.021431902995788</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.057329949167599</v>
+        <v>-2.924235096460297</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5091027578430415</v>
+        <v>0.4636358203432085</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.005329772953591</v>
+        <v>-6.307181128273519</v>
       </c>
       <c r="H33" t="n">
-        <v>1.909434052955529e-09</v>
+        <v>2.841632161286672e-10</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.107556558033409</v>
+        <v>-3.945666999456084</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>2.482264268842187e-08</v>
+        <v>3.694121809672674e-09</v>
       </c>
     </row>
     <row r="34">
@@ -16689,27 +16703,27 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-3.514094644685178</v>
+        <v>-3.513057275369547</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5479765525715719</v>
+        <v>0.5112224645976826</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3910945200429459</v>
+        <v>0.3538853858174137</v>
       </c>
       <c r="G34" t="n">
-        <v>1.401135849490805</v>
+        <v>1.444598972113097</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1611734531061937</v>
+        <v>0.1485705616826666</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.966118092113606</v>
+        <v>-3.001834810771864</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.220553146355844</v>
+        <v>0.2033070844078595</v>
       </c>
     </row>
     <row r="35">
@@ -16725,27 +16739,27 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>-3.18177193376014</v>
+        <v>-3.185255868464403</v>
       </c>
       <c r="E35" t="n">
-        <v>1.916975929715188</v>
+        <v>1.762704543677662</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4325281640021762</v>
+        <v>0.3963131034484938</v>
       </c>
       <c r="G35" t="n">
-        <v>4.432025678923288</v>
+        <v>4.447757412862703</v>
       </c>
       <c r="H35" t="n">
-        <v>9.335189670387387e-06</v>
+        <v>8.677144463511556e-06</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.264796004044952</v>
+        <v>-1.422551324786741</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>4.854298628601441e-05</v>
+        <v>4.512115121026009e-05</v>
       </c>
     </row>
     <row r="36">
@@ -16761,27 +16775,27 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-2.616561394429175</v>
+        <v>-2.622972632898853</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4485731964141193</v>
+        <v>-0.4402592722681948</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5082964409221919</v>
+        <v>0.4673306718316457</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8825031227845743</v>
+        <v>-0.9420722815873654</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3775047917883997</v>
+        <v>0.3461556345778577</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.065134590843294</v>
+        <v>-3.063231905167048</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.4267445472390605</v>
+        <v>0.3913063695227957</v>
       </c>
     </row>
     <row r="37">
@@ -16797,27 +16811,27 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0.7449049725667334</v>
+        <v>0.7699076051815006</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.06860511542294</v>
+        <v>-1.085178026345426</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5799267804069415</v>
+        <v>0.5229713796032398</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.842655230843257</v>
+        <v>-2.075023736803175</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06537936442710567</v>
+        <v>0.03798433490153653</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3237001428562063</v>
+        <v>-0.3152704211639257</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.1133242316736498</v>
+        <v>0.08115322157409463</v>
       </c>
     </row>
     <row r="38">
@@ -16833,27 +16847,27 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>-1.364717565494732</v>
+        <v>-1.358208958992117</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.454401066306594</v>
+        <v>-0.4614439319413988</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4789734613240874</v>
+        <v>0.43036746835874</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.9486977943421651</v>
+        <v>-1.072209137231429</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3427743361572227</v>
+        <v>0.2836261072712586</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.819118631801326</v>
+        <v>-1.819652890933516</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.4050969427312632</v>
+        <v>0.3511561328120344</v>
       </c>
     </row>
     <row r="39">
@@ -16869,27 +16883,27 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>-1.231073663382708</v>
+        <v>-1.23194995805206</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5777726180300775</v>
+        <v>0.6370816229633702</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4312077989640348</v>
+        <v>0.3888225337550001</v>
       </c>
       <c r="G39" t="n">
-        <v>1.339893711148455</v>
+        <v>1.638489458959187</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1802799029700473</v>
+        <v>0.1013196311792812</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.6533010453526307</v>
+        <v>-0.5948683350886896</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.2343638738610614</v>
+        <v>0.1549594359212537</v>
       </c>
     </row>
     <row r="40">
@@ -16905,27 +16919,27 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>9.532971367345613</v>
+        <v>9.566702345781041</v>
       </c>
       <c r="E40" t="n">
-        <v>-5.618560367324672</v>
+        <v>-5.356293801921776</v>
       </c>
       <c r="F40" t="n">
-        <v>1.05956489597434</v>
+        <v>0.9639056255058422</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.302705278998542</v>
+        <v>-5.556865382034553</v>
       </c>
       <c r="H40" t="n">
-        <v>1.140990485055249e-07</v>
+        <v>2.74662423661405e-08</v>
       </c>
       <c r="I40" t="n">
-        <v>3.91441100002094</v>
+        <v>4.210408543859264</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>9.88858420381216e-07</v>
+        <v>2.380407671732176e-07</v>
       </c>
     </row>
     <row r="41">
@@ -16941,27 +16955,27 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>-1.403838116189807</v>
+        <v>-1.412041262769299</v>
       </c>
       <c r="E41" t="n">
-        <v>1.827930404120819</v>
+        <v>1.700479364075583</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4058563273227118</v>
+        <v>0.3673443797127778</v>
       </c>
       <c r="G41" t="n">
-        <v>4.503885441873035</v>
+        <v>4.629114961293727</v>
       </c>
       <c r="H41" t="n">
-        <v>6.672218317836739e-06</v>
+        <v>3.672318658976864e-06</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4240922879310122</v>
+        <v>0.2884381013062844</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>4.33694190659388e-05</v>
+        <v>2.387007128334962e-05</v>
       </c>
     </row>
     <row r="42">
@@ -16977,27 +16991,27 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>-4.890798150218666</v>
+        <v>-4.948072020550809</v>
       </c>
       <c r="E42" t="n">
-        <v>3.511880905513711</v>
+        <v>3.539099374889534</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8965250218827152</v>
+        <v>0.8147910709284572</v>
       </c>
       <c r="G42" t="n">
-        <v>3.917214600590524</v>
+        <v>4.343566714417621</v>
       </c>
       <c r="H42" t="n">
-        <v>8.957800031867815e-05</v>
+        <v>1.401878786976222e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.378917244704956</v>
+        <v>-1.408972645661275</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.0003327182868979474</v>
+        <v>6.074808076896962e-05</v>
       </c>
     </row>
     <row r="43">
@@ -17013,27 +17027,27 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>-0.5854528967131825</v>
+        <v>-0.5226924197397288</v>
       </c>
       <c r="E43" t="n">
-        <v>2.499922586175268</v>
+        <v>2.083797577069438</v>
       </c>
       <c r="F43" t="n">
-        <v>1.530236427463797</v>
+        <v>1.39827019189139</v>
       </c>
       <c r="G43" t="n">
-        <v>1.633683881332391</v>
+        <v>1.490268182182129</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1023252445893343</v>
+        <v>0.1361537350402029</v>
       </c>
       <c r="I43" t="n">
-        <v>1.914469689462086</v>
+        <v>1.561105157329709</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.1662785224576682</v>
+        <v>0.1966665061691819</v>
       </c>
     </row>
     <row r="44">
@@ -17049,27 +17063,27 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>-4.065607407196207</v>
+        <v>-4.085790067439686</v>
       </c>
       <c r="E44" t="n">
-        <v>3.502637032529191</v>
+        <v>3.40326776939412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5671249177753248</v>
+        <v>0.5205176926735892</v>
       </c>
       <c r="G44" t="n">
-        <v>6.176129672222962</v>
+        <v>6.538236485129953</v>
       </c>
       <c r="H44" t="n">
-        <v>6.569203927822488e-10</v>
+        <v>6.224844352641927e-11</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.5629703746670152</v>
+        <v>-0.6825222980455656</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1.707993021233847e-08</v>
+        <v>1.618459531686901e-09</v>
       </c>
     </row>
     <row r="45">
@@ -17085,27 +17099,27 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>2.174947770119461</v>
+        <v>2.187151364546228</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.145583700966549</v>
+        <v>-1.017852155940647</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4411955510547724</v>
+        <v>0.3988027056860537</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.59654409077287</v>
+        <v>-2.552269935555358</v>
       </c>
       <c r="H45" t="n">
-        <v>0.009416681929394748</v>
+        <v>0.01070235652354839</v>
       </c>
       <c r="I45" t="n">
-        <v>1.029364069152912</v>
+        <v>1.169299208605582</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.02448337301642635</v>
+        <v>0.02782612696122581</v>
       </c>
     </row>
     <row r="46">
@@ -17121,27 +17135,27 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>2.554248959946047</v>
+        <v>2.538797242053561</v>
       </c>
       <c r="E46" t="n">
-        <v>1.608148634437569</v>
+        <v>1.64229580308704</v>
       </c>
       <c r="F46" t="n">
-        <v>0.466348198843988</v>
+        <v>0.4256315645061528</v>
       </c>
       <c r="G46" t="n">
-        <v>3.448386073804819</v>
+        <v>3.858491568858493</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0005639473187008054</v>
+        <v>0.0001140890027717894</v>
       </c>
       <c r="I46" t="n">
-        <v>4.162397594383616</v>
+        <v>4.181093045140601</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.001832828785777618</v>
+        <v>0.0003707892590083157</v>
       </c>
     </row>
     <row r="47">
@@ -17157,27 +17171,27 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>2.140820276432287</v>
+        <v>2.163542149631207</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.631770958310312</v>
+        <v>-1.610180037267977</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5852480925093179</v>
+        <v>0.5282108301729124</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.78816963129928</v>
+        <v>-3.048366192606988</v>
       </c>
       <c r="H47" t="n">
-        <v>0.005300678057335598</v>
+        <v>0.002300893560007171</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5090493181219751</v>
+        <v>0.5533621123632295</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.01531306994341395</v>
+        <v>0.006647025840020716</v>
       </c>
     </row>
     <row r="48">
@@ -17193,27 +17207,27 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>-4.364331540908673</v>
+        <v>-4.379740513134236</v>
       </c>
       <c r="E48" t="n">
-        <v>1.582357940904372</v>
+        <v>1.424385311152772</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7696933431148212</v>
+        <v>0.6955582074767003</v>
       </c>
       <c r="G48" t="n">
-        <v>2.055829058493389</v>
+        <v>2.04783049907507</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03979899604183958</v>
+        <v>0.04057661078704732</v>
       </c>
       <c r="I48" t="n">
-        <v>-2.781973600004302</v>
+        <v>-2.955355201981464</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.07959799208367915</v>
+        <v>0.08115322157409463</v>
       </c>
     </row>
     <row r="49">
@@ -17229,27 +17243,27 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>-3.113579231626527</v>
+        <v>-3.108359848063274</v>
       </c>
       <c r="E49" t="n">
-        <v>1.296244332252462</v>
+        <v>1.065241484494682</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5940907459859867</v>
+        <v>0.539439887504358</v>
       </c>
       <c r="G49" t="n">
-        <v>2.181896185070416</v>
+        <v>1.974717682488906</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02911719546948735</v>
+        <v>0.04830019512878467</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.817334899374065</v>
+        <v>-2.043118363568592</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.06308725685055593</v>
+        <v>0.08970036238202869</v>
       </c>
     </row>
     <row r="50">
@@ -17265,27 +17279,27 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>0.2339916347055748</v>
+        <v>0.2123462424113982</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1569113654815145</v>
+        <v>0.1542840303333068</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4291119328317842</v>
+        <v>0.3853996389325095</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3656653508701778</v>
+        <v>0.4003221973965697</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7146148041095486</v>
+        <v>0.6889192207141406</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3909030001870893</v>
+        <v>0.3666302727447049</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.7431993962739305</v>
+        <v>0.6889192207141406</v>
       </c>
     </row>
     <row r="51">
@@ -17301,27 +17315,27 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>-0.1156871700150609</v>
+        <v>-0.09695643711144254</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3644760375965532</v>
+        <v>-0.3545336502008989</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4802187753827173</v>
+        <v>0.4353786777721914</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.7589791492556257</v>
+        <v>-0.814311008557029</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4478650297801811</v>
+        <v>0.4154668047793652</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.4801632076116141</v>
+        <v>-0.4514900873123414</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.4851871155951961</v>
+        <v>0.4500890385109789</v>
       </c>
     </row>
     <row r="52">
@@ -17337,27 +17351,27 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>-0.7731778089524937</v>
+        <v>-0.7610768684721011</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.8013154322194966</v>
+        <v>-0.8781251062037695</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5482193503445246</v>
+        <v>0.4943368983371158</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.461669369597982</v>
+        <v>-1.776369737233184</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1438318348141488</v>
+        <v>0.07567199572268853</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.57449324117199</v>
+        <v>-1.639201974675871</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.2077570947315482</v>
+        <v>0.1229669930493689</v>
       </c>
     </row>
     <row r="53">
@@ -17373,27 +17387,27 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>-2.527994403693536</v>
+        <v>-2.535908973774761</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.690911921173524</v>
+        <v>-1.693735702295534</v>
       </c>
       <c r="F53" t="n">
-        <v>0.429636468343394</v>
+        <v>0.3943336656335086</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.935680617833481</v>
+        <v>-4.295184129345127</v>
       </c>
       <c r="H53" t="n">
-        <v>8.296124262771902e-05</v>
+        <v>1.745484024337126e-05</v>
       </c>
       <c r="I53" t="n">
-        <v>-4.218906324867059</v>
+        <v>-4.229644676070295</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.0003327182868979474</v>
+        <v>6.483226376109324e-05</v>
       </c>
     </row>
     <row r="54">
@@ -17408,28 +17422,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.2645628095069159</v>
+        <v>-0.2765828320499483</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>0.2578316145553362</v>
+        <v>0.222570942403036</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3442359345452032</v>
+        <v>0.3031071620259446</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7489968032999736</v>
+        <v>0.7342978665214942</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4538591321650869</v>
+        <v>0.4627672179112513</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.006731194951579689</v>
+        <v>-0.05401188964691228</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="55">
@@ -17444,28 +17458,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-1.827033157038118</v>
+        <v>-1.853979736922265</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>1.158896560541108</v>
+        <v>0.989550770373024</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6804291524618054</v>
+        <v>0.5973731951793586</v>
       </c>
       <c r="G55" t="n">
-        <v>1.703184756779157</v>
+        <v>1.656503469453322</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08853349837532153</v>
+        <v>0.0976199030394329</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.6681365964970105</v>
+        <v>-0.8644289665492413</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.3288387082511943</v>
+        <v>0.3625882112893222</v>
       </c>
     </row>
     <row r="56">
@@ -17480,28 +17494,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.233790670429209</v>
+        <v>2.25450144377319</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>-0.2593886598819715</v>
+        <v>-0.1201889842122243</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6254087083340711</v>
+        <v>0.5453260096802465</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.4147506365444071</v>
+        <v>-0.2203984077023898</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6783244595614861</v>
+        <v>0.8255608853957649</v>
       </c>
       <c r="I56" t="n">
-        <v>1.974402010547238</v>
+        <v>2.134312459560965</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.8585833208115955</v>
       </c>
     </row>
     <row r="57">
@@ -17516,28 +17530,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.238050612483982</v>
+        <v>2.264698178686733</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>-3.519825424715637</v>
+        <v>-3.217084250283404</v>
       </c>
       <c r="F57" t="n">
-        <v>1.60536423898082</v>
+        <v>1.42777060111823</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.192540072370261</v>
+        <v>-2.253222084670873</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02834053290054329</v>
+        <v>0.0242451495926097</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.281774812231655</v>
+        <v>-0.952386071596671</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.2456179518047085</v>
+        <v>0.1919451582738794</v>
       </c>
     </row>
     <row r="58">
@@ -17552,28 +17566,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.3948382356080369</v>
+        <v>-0.3958011521683018</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>-1.245166183534471</v>
+        <v>-1.123106237870622</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7033995101819223</v>
+        <v>0.6195801282456861</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.770211900222151</v>
+        <v>-1.812689249816077</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07669184765573188</v>
+        <v>0.06987976347443053</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.640004419142507</v>
+        <v>-1.518907390038923</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.3288387082511943</v>
+        <v>0.302812308389199</v>
       </c>
     </row>
     <row r="59">
@@ -17588,28 +17602,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-4.535112392708194</v>
+        <v>-4.497181063712963</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>0.4275558346747852</v>
+        <v>0.551514064256879</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5152699529010539</v>
+        <v>0.4593357317362867</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8297705547695456</v>
+        <v>1.200677469989454</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4066685218094099</v>
+        <v>0.2298763369349714</v>
       </c>
       <c r="I59" t="n">
-        <v>-4.107556558033409</v>
+        <v>-3.945666999456084</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.8133370436188199</v>
+        <v>0.6141952052773008</v>
       </c>
     </row>
     <row r="60">
@@ -17624,28 +17638,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-2.586720935991897</v>
+        <v>-2.595045761708426</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>-0.3793971561217089</v>
+        <v>-0.406789049063438</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3899703801215334</v>
+        <v>0.343436865260024</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.9728871100504366</v>
+        <v>-1.18446529831749</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3306094120125559</v>
+        <v>0.2362289251066542</v>
       </c>
       <c r="I60" t="n">
-        <v>-2.966118092113606</v>
+        <v>-3.001834810771864</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.8133370436188199</v>
+        <v>0.6141952052773008</v>
       </c>
     </row>
     <row r="61">
@@ -17660,28 +17674,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-1.666198105590746</v>
+        <v>-1.702185671986154</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>0.401402101545794</v>
+        <v>0.2796343471994125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4139088256761574</v>
+        <v>0.3665914617955476</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9697838669906772</v>
+        <v>0.7627955812985298</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3321542360651064</v>
+        <v>0.4455853167605164</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.264796004044952</v>
+        <v>-1.422551324786741</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.8133370436188199</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="62">
@@ -17696,28 +17710,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-3.255201991721537</v>
+        <v>-3.256267772122472</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>0.1900674008782426</v>
+        <v>0.1930358669554235</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4904113543674583</v>
+        <v>0.4373049791001292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.38756729261172</v>
+        <v>0.4414216077590654</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6983362773082729</v>
+        <v>0.6589078021031902</v>
       </c>
       <c r="I62" t="n">
-        <v>-3.065134590843294</v>
+        <v>-3.063231905167048</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.839496173965311</v>
       </c>
     </row>
     <row r="63">
@@ -17732,28 +17746,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-2.31964002609088</v>
+        <v>-2.306672331314411</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>1.995939883234674</v>
+        <v>1.991401910150485</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5729123144597175</v>
+        <v>0.5006739688253581</v>
       </c>
       <c r="G63" t="n">
-        <v>3.483848806980063</v>
+        <v>3.977442475834235</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0004942586120674039</v>
+        <v>6.966046743397185e-05</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.3237001428562063</v>
+        <v>-0.3152704211639257</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0128507239137525</v>
+        <v>0.001811172153283268</v>
       </c>
     </row>
     <row r="64">
@@ -17768,28 +17782,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-1.506626721459265</v>
+        <v>-1.507020049498057</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>-0.3124919103420607</v>
+        <v>-0.3126328414354591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4763803019272393</v>
+        <v>0.4153762650530385</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.6559715191368044</v>
+        <v>-0.7526497485250865</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5118424495153525</v>
+        <v>0.4516604143873055</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.819118631801326</v>
+        <v>-1.819652890933516</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="65">
@@ -17804,28 +17818,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.860083293080007</v>
+        <v>-0.8350643207953123</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>0.2067822477273763</v>
+        <v>0.2401959857066227</v>
       </c>
       <c r="F65" t="n">
-        <v>0.430359583185884</v>
+        <v>0.3774649875009904</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4804871456482972</v>
+        <v>0.6363397762977752</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6308810412932415</v>
+        <v>0.5245549846073412</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.6533010453526307</v>
+        <v>-0.5948683350886896</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="66">
@@ -17840,28 +17854,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3.578094927087217</v>
+        <v>3.631319977681816</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>0.3363160729337236</v>
+        <v>0.5790885661774485</v>
       </c>
       <c r="F66" t="n">
-        <v>1.019239404462683</v>
+        <v>0.8938947514615839</v>
       </c>
       <c r="G66" t="n">
-        <v>0.329967691065693</v>
+        <v>0.6478263411107359</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7414243749233108</v>
+        <v>0.5170972763387636</v>
       </c>
       <c r="I66" t="n">
-        <v>3.91441100002094</v>
+        <v>4.210408543859264</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.8315786078071526</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="67">
@@ -17876,28 +17890,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7587124919957557</v>
+        <v>0.7235820520025658</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>-0.3346202040647435</v>
+        <v>-0.4351439506962813</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4018120653672136</v>
+        <v>0.3530833927542985</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.8327778902281994</v>
+        <v>-1.232411264947504</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4049700064161139</v>
+        <v>0.217795495007522</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4240922879310122</v>
+        <v>0.2884381013062844</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.8133370436188199</v>
+        <v>0.6141952052773008</v>
       </c>
     </row>
     <row r="68">
@@ -17912,28 +17926,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1844930978981443</v>
+        <v>0.1769026067643771</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>-1.5634103426031</v>
+        <v>-1.585875252425652</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8668635295827787</v>
+        <v>0.7599809779823288</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.803525340782959</v>
+        <v>-2.086730192426641</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07130574936833071</v>
+        <v>0.0369125304372845</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.378917244704956</v>
+        <v>-1.408972645661275</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.3288387082511943</v>
+        <v>0.1919451582738794</v>
       </c>
     </row>
     <row r="69">
@@ -17948,28 +17962,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-1.793201669812335</v>
+        <v>-1.817407996749055</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>3.707671359274421</v>
+        <v>3.378513154078764</v>
       </c>
       <c r="F69" t="n">
-        <v>1.529459223441783</v>
+        <v>1.364851111124419</v>
       </c>
       <c r="G69" t="n">
-        <v>2.424171434221665</v>
+        <v>2.475371215615898</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01534336047974759</v>
+        <v>0.01330977541231606</v>
       </c>
       <c r="I69" t="n">
-        <v>1.914469689462086</v>
+        <v>1.561105157329709</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.1994636862367186</v>
+        <v>0.1730270803601087</v>
       </c>
     </row>
     <row r="70">
@@ -17984,28 +17998,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.8108949639593169</v>
+        <v>-0.8084721038588835</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>0.2479245892923018</v>
+        <v>0.1259498058133178</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5316422400391454</v>
+        <v>0.4676548798247525</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4663372670953437</v>
+        <v>0.2693221245986268</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6409741073320433</v>
+        <v>0.7876818080034667</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.5629703746670152</v>
+        <v>-0.6825222980455656</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.8533219586704223</v>
       </c>
     </row>
     <row r="71">
@@ -18020,28 +18034,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9917915576319498</v>
+        <v>1.019194236823546</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>0.03757251152096241</v>
+        <v>0.1501049717820351</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4345232485927679</v>
+        <v>0.3805931361615494</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08646835731492725</v>
+        <v>0.3943974746783673</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9310941090408014</v>
+        <v>0.6932876079322914</v>
       </c>
       <c r="I71" t="n">
-        <v>1.029364069152912</v>
+        <v>1.169299208605582</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.9310941090408014</v>
+        <v>0.839496173965311</v>
       </c>
     </row>
     <row r="72">
@@ -18056,28 +18070,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5.100130101202551</v>
+        <v>5.096857611204086</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>-0.9377325068189348</v>
+        <v>-0.9157645660634852</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4752511810673622</v>
+        <v>0.4253110619297633</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.973130302828265</v>
+        <v>-2.15316423209965</v>
       </c>
       <c r="H72" t="n">
-        <v>0.04848071861929271</v>
+        <v>0.03130577362535809</v>
       </c>
       <c r="I72" t="n">
-        <v>4.162397594383616</v>
+        <v>4.181093045140601</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.3151246710254026</v>
+        <v>0.1919451582738794</v>
       </c>
     </row>
     <row r="73">
@@ -18092,28 +18106,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.094491877770426</v>
+        <v>1.085247018020179</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>-0.5854425596484514</v>
+        <v>-0.5318849056569497</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5776404924242051</v>
+        <v>0.5052672013732895</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.013506787225914</v>
+        <v>-1.052680451474615</v>
       </c>
       <c r="H73" t="n">
-        <v>0.310818155860455</v>
+        <v>0.2924874709975089</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5090493181219751</v>
+        <v>0.5533621123632295</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.8133370436188199</v>
+        <v>0.6913340223577484</v>
       </c>
     </row>
     <row r="74">
@@ -18128,28 +18142,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-2.472513991985934</v>
+        <v>-2.501462048044504</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>-0.309459608018368</v>
+        <v>-0.4538931539369591</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7556568239489753</v>
+        <v>0.6612035250123212</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4095240037682289</v>
+        <v>-0.6864651151527074</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6821551549841487</v>
+        <v>0.4924198552933875</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.781973600004302</v>
+        <v>-2.955355201981464</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="75">
@@ -18164,28 +18178,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-2.060759381630624</v>
+        <v>-2.097029184700801</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>0.2434244822565594</v>
+        <v>0.05391082113220902</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5775261870220616</v>
+        <v>0.5079308014374929</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4214951420848049</v>
+        <v>0.1061381215307995</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6733935577848666</v>
+        <v>0.9154727653488401</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.817334899374065</v>
+        <v>-2.043118363568592</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.9154727653488401</v>
       </c>
     </row>
     <row r="76">
@@ -18200,28 +18214,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.4776571705755112</v>
+        <v>0.4676255686206385</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>-0.08675417038842187</v>
+        <v>-0.1009952958759336</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4274134524631124</v>
+        <v>0.3726359480785138</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2029748242327706</v>
+        <v>-0.2710293958398615</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8391547099630279</v>
+        <v>0.7863684235016835</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3909030001870893</v>
+        <v>0.3666302727447049</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.8727208983615491</v>
+        <v>0.8533219586704223</v>
       </c>
     </row>
     <row r="77">
@@ -18236,28 +18250,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.6205607079760633</v>
+        <v>-0.6068852151299358</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>0.1403975003644492</v>
+        <v>0.1553951278175943</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4751164873774563</v>
+        <v>0.4184086611660059</v>
       </c>
       <c r="G77" t="n">
-        <v>0.295501217268662</v>
+        <v>0.3713955810201082</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7676110225912178</v>
+        <v>0.7103429164321862</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.4801632076116141</v>
+        <v>-0.4514900873123414</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.8315786078071526</v>
+        <v>0.839496173965311</v>
       </c>
     </row>
     <row r="78">
@@ -18272,28 +18286,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-2.094168911820599</v>
+        <v>-2.091137583138145</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>0.5196756706486085</v>
+        <v>0.4519356084622745</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5543821140014533</v>
+        <v>0.487970792225461</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9373961704818748</v>
+        <v>0.9261529904303435</v>
       </c>
       <c r="H78" t="n">
-        <v>0.348554810079108</v>
+        <v>0.3543664788060089</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.57449324117199</v>
+        <v>-1.639201974675871</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.8133370436188199</v>
+        <v>0.7576905333217151</v>
       </c>
     </row>
     <row r="79">
@@ -18308,28 +18322,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-4.006388128858678</v>
+        <v>-4.00948841998553</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>-0.2125181960083813</v>
+        <v>-0.2201562560847652</v>
       </c>
       <c r="F79" t="n">
-        <v>0.426978624480378</v>
+        <v>0.3823324999349833</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4977256092550545</v>
+        <v>-0.5758240696833342</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6186774552481296</v>
+        <v>0.5647341025802534</v>
       </c>
       <c r="I79" t="n">
-        <v>-4.218906324867059</v>
+        <v>-4.229644676070295</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.8253065095461406</v>
+        <v>0.7727940351098205</v>
       </c>
     </row>
     <row r="80">
@@ -18346,26 +18360,26 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>-0.2944139135557563</v>
+        <v>-0.3387643956745635</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2822649410703983</v>
+        <v>0.2841153638683055</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.043041025354714</v>
+        <v>-1.19234803448218</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2969292924926666</v>
+        <v>0.2331248072058841</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>-0.350243094851165</v>
+        <v>-0.3699966237613219</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.05582918129540872</v>
+        <v>-0.03123222808675834</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3406303495411235</v>
+        <v>0.3030622493676494</v>
       </c>
     </row>
     <row r="81">
@@ -18382,26 +18396,26 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>0.5761343386746394</v>
+        <v>0.4774069266332239</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5574097202308467</v>
+        <v>0.5629489911524175</v>
       </c>
       <c r="G81" t="n">
-        <v>1.033592199353894</v>
+        <v>0.8480465088958066</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3013268476709938</v>
+        <v>0.3964120697592588</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>-1.208683986661036</v>
+        <v>-1.252621979855023</v>
       </c>
       <c r="K81" t="n">
-        <v>-1.784818325335676</v>
+        <v>-1.730028906488247</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3406303495411235</v>
+        <v>0.4240375803374538</v>
       </c>
     </row>
     <row r="82">
@@ -18418,26 +18432,26 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>1.294094139681338</v>
+        <v>1.358726277847025</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5106227747535038</v>
+        <v>0.5158908748243143</v>
       </c>
       <c r="G82" t="n">
-        <v>2.534344732872607</v>
+        <v>2.633747453489533</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01126578406062168</v>
+        <v>0.00844482746689742</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>2.988445703939054</v>
+        <v>3.01265679259008</v>
       </c>
       <c r="K82" t="n">
-        <v>1.694351564257716</v>
+        <v>1.653930514743055</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0172300226809508</v>
+        <v>0.01291561847878429</v>
       </c>
     </row>
     <row r="83">
@@ -18454,26 +18468,26 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>5.977979416754012</v>
+        <v>5.993162635148259</v>
       </c>
       <c r="F83" t="n">
-        <v>1.309659412463602</v>
+        <v>1.321317861201861</v>
       </c>
       <c r="G83" t="n">
-        <v>4.564529800544729</v>
+        <v>4.53574632654774</v>
       </c>
       <c r="H83" t="n">
-        <v>5.006150887413829e-06</v>
+        <v>5.740013965217612e-06</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>3.699516666597901</v>
+        <v>3.728872206935498</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.278462750156111</v>
+        <v>-2.264290428212761</v>
       </c>
       <c r="L83" t="n">
-        <v>1.859427472467994e-05</v>
+        <v>2.132005187080827e-05</v>
       </c>
     </row>
     <row r="84">
@@ -18490,26 +18504,26 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>1.928116139031589</v>
+        <v>1.915346178585868</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5684115345742771</v>
+        <v>0.573730299396164</v>
       </c>
       <c r="G84" t="n">
-        <v>3.392112970535845</v>
+        <v>3.338408622660716</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0006935583803701119</v>
+        <v>0.0008425973878447748</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>-0.4955970524017204</v>
+        <v>-0.4873397027317941</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.423713191433309</v>
+        <v>-2.402685881317662</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001387116760740224</v>
+        <v>0.00168519477568955</v>
       </c>
     </row>
     <row r="85">
@@ -18526,26 +18540,26 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>-3.473490912001012</v>
+        <v>-3.323228373048925</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4173651200798047</v>
+        <v>0.419169818955443</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.322427402023539</v>
+        <v>-7.928119398792351</v>
       </c>
       <c r="H85" t="n">
-        <v>8.617990722401306e-17</v>
+        <v>2.224893478702041e-15</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>-5.09409626992018</v>
+        <v>-5.033038001569375</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.620605357919168</v>
+        <v>-1.70980962852045</v>
       </c>
       <c r="L85" t="n">
-        <v>7.468925292747799e-16</v>
+        <v>1.928241014875102e-14</v>
       </c>
     </row>
     <row r="86">
@@ -18562,26 +18576,26 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>-1.128537388471723</v>
+        <v>-1.123746467074264</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3174768737212553</v>
+        <v>0.3199614192348343</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.554707387797258</v>
+        <v>-3.512131149316773</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0003783999576655612</v>
+        <v>0.0004445285767304213</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>-3.419806338969033</v>
+        <v>-3.423785468699683</v>
       </c>
       <c r="K86" t="n">
-        <v>-2.29126895049731</v>
+        <v>-2.300039001625419</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0008943998999367812</v>
+        <v>0.001050703908635541</v>
       </c>
     </row>
     <row r="87">
@@ -18598,26 +18612,26 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>-0.2082245973186223</v>
+        <v>-0.3095968389951613</v>
       </c>
       <c r="F87" t="n">
-        <v>0.343801021056146</v>
+        <v>0.3471999882723255</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.6056543889222983</v>
+        <v>-0.8916959949674013</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5447442776371778</v>
+        <v>0.3725559008209474</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>-2.053265974622036</v>
+        <v>-2.085236270565533</v>
       </c>
       <c r="K87" t="n">
-        <v>-1.845041377303414</v>
+        <v>-1.775639431570371</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5744849692437145</v>
+        <v>0.4211501487541144</v>
       </c>
     </row>
     <row r="88">
@@ -18634,26 +18648,26 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>0.4351853528227547</v>
+        <v>0.4317893102415242</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4045687871233461</v>
+        <v>0.4084824843113409</v>
       </c>
       <c r="G88" t="n">
-        <v>1.075677033606832</v>
+        <v>1.057057099937776</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2820717221809721</v>
+        <v>0.2904855285944399</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>-3.115466954732943</v>
+        <v>-3.097092008147196</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.550652307555697</v>
+        <v>-3.52888131838872</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3406303495411235</v>
+        <v>0.3521004669578591</v>
       </c>
     </row>
     <row r="89">
@@ -18670,26 +18684,26 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>-1.860782581451257</v>
+        <v>-1.795598997867103</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4709006193601105</v>
+        <v>0.4755831593088877</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.951539889626405</v>
+        <v>-3.775573131051252</v>
       </c>
       <c r="H89" t="n">
-        <v>7.764992573456057e-05</v>
+        <v>0.0001596401778842744</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>-1.87631173989784</v>
+        <v>-1.848121948028999</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.01552915844658298</v>
+        <v>-0.0525229501618959</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0002523622586373219</v>
+        <v>0.0005188305781238917</v>
       </c>
     </row>
     <row r="90">
@@ -18706,26 +18720,26 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>0.1015094476308616</v>
+        <v>0.1059193761360346</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3893223074958547</v>
+        <v>0.3934453050307993</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2607337048929372</v>
+        <v>0.2692099124876917</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7942978720753823</v>
+        <v>0.7877681527082816</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>-1.47052253941815</v>
+        <v>-1.464951097423806</v>
       </c>
       <c r="K90" t="n">
-        <v>-1.572031987049011</v>
+        <v>-1.570870473559841</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7942978720753823</v>
+        <v>0.7877681527082816</v>
       </c>
     </row>
     <row r="91">
@@ -18742,26 +18756,26 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>0.4998287880648151</v>
+        <v>0.5388821788393852</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3530425215271062</v>
+        <v>0.3558942735089916</v>
       </c>
       <c r="G91" t="n">
-        <v>1.415775034414484</v>
+        <v>1.514163668682268</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1568413813298999</v>
+        <v>0.1299843337846383</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>-0.8386460187926696</v>
+        <v>-0.8058732088722467</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.338474806857485</v>
+        <v>-1.344755387711632</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2146250481356524</v>
+        <v>0.1778732988631893</v>
       </c>
     </row>
     <row r="92">
@@ -18778,26 +18792,26 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>-1.637198657229987</v>
+        <v>-1.458093696546948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8450147541849596</v>
+        <v>0.8529860134713247</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.937479374320642</v>
+        <v>-1.709399302590048</v>
       </c>
       <c r="H92" t="n">
-        <v>0.05268677225328407</v>
+        <v>0.08737701003506897</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>4.758235881920519</v>
+        <v>4.807458392858178</v>
       </c>
       <c r="K92" t="n">
-        <v>6.395434539150505</v>
+        <v>6.265552089405126</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07610311547696588</v>
+        <v>0.1262112367173218</v>
       </c>
     </row>
     <row r="93">
@@ -18814,26 +18828,26 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>0.9750719732121285</v>
+        <v>0.8819197965974932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3290771165557853</v>
+        <v>0.3317105937162301</v>
       </c>
       <c r="G93" t="n">
-        <v>2.963050069897017</v>
+        <v>2.658702535596294</v>
       </c>
       <c r="H93" t="n">
-        <v>0.003046070162155254</v>
+        <v>0.00784421866984715</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>0.8033285970791852</v>
+        <v>0.7573077333760116</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.1717433761329432</v>
+        <v>-0.1246120632214815</v>
       </c>
       <c r="L93" t="n">
-        <v>0.005656987444002614</v>
+        <v>0.01274685533850162</v>
       </c>
     </row>
     <row r="94">
@@ -18850,26 +18864,26 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>6.398643869604333</v>
+        <v>6.319715795001842</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7184291734501821</v>
+        <v>0.724705870401011</v>
       </c>
       <c r="G94" t="n">
-        <v>8.906436578675537</v>
+        <v>8.720387198609099</v>
       </c>
       <c r="H94" t="n">
-        <v>5.269908983536885e-19</v>
+        <v>2.772520339894937e-18</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>1.041223926561085</v>
+        <v>1.035624012857979</v>
       </c>
       <c r="K94" t="n">
-        <v>-5.357419943043249</v>
+        <v>-5.284091782143863</v>
       </c>
       <c r="L94" t="n">
-        <v>6.85088167859795e-18</v>
+        <v>3.604276441863417e-17</v>
       </c>
     </row>
     <row r="95">
@@ -18886,26 +18900,26 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>-6.896937897618695</v>
+        <v>-6.922407941206489</v>
       </c>
       <c r="F95" t="n">
-        <v>1.245030788658406</v>
+        <v>1.255829003118012</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.539572161946737</v>
+        <v>-5.512221746765934</v>
       </c>
       <c r="H95" t="n">
-        <v>3.032114870188677e-08</v>
+        <v>3.543321003424231e-08</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>-3.087998361621993</v>
+        <v>-3.129344073722958</v>
       </c>
       <c r="K95" t="n">
-        <v>3.808939535996703</v>
+        <v>3.79306386748353</v>
       </c>
       <c r="L95" t="n">
-        <v>1.576699732498112e-07</v>
+        <v>2.30315865222575e-07</v>
       </c>
     </row>
     <row r="96">
@@ -18922,26 +18936,26 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>2.50199165755165</v>
+        <v>2.474765476167724</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4491258255663649</v>
+        <v>0.452420661697356</v>
       </c>
       <c r="G96" t="n">
-        <v>5.570803358716999</v>
+        <v>5.470054057396704</v>
       </c>
       <c r="H96" t="n">
-        <v>2.535673916381772e-08</v>
+        <v>4.498983359981402e-08</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>-0.8280408458018863</v>
+        <v>-0.8165868618736898</v>
       </c>
       <c r="K96" t="n">
-        <v>-3.330032503353537</v>
+        <v>-3.291352338041413</v>
       </c>
       <c r="L96" t="n">
-        <v>1.576699732498112e-07</v>
+        <v>2.339471347190329e-07</v>
       </c>
     </row>
     <row r="97">
@@ -18958,26 +18972,26 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>0.2118684199904135</v>
+        <v>0.2981024257295493</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3565706944874757</v>
+        <v>0.3600715751695039</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5941834908641244</v>
+        <v>0.8278976911443713</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5523893935035716</v>
+        <v>0.4077284426321671</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>1.460028583125261</v>
+        <v>1.494727273788949</v>
       </c>
       <c r="K97" t="n">
-        <v>1.248160163134847</v>
+        <v>1.1966248480594</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5744849692437145</v>
+        <v>0.4240375803374538</v>
       </c>
     </row>
     <row r="98">
@@ -18994,26 +19008,26 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>3.447333636871002</v>
+        <v>3.407158764558377</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3803806979644579</v>
+        <v>0.3828426407232415</v>
       </c>
       <c r="G98" t="n">
-        <v>9.062851126039824</v>
+        <v>8.899632387138992</v>
       </c>
       <c r="H98" t="n">
-        <v>1.27084421157666e-19</v>
+        <v>5.603195892254077e-19</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5.83896009152577</v>
+        <v>5.817476291495335</v>
       </c>
       <c r="K98" t="n">
-        <v>2.391626454654768</v>
+        <v>2.410317526936958</v>
       </c>
       <c r="L98" t="n">
-        <v>3.304194950099315e-18</v>
+        <v>1.45683093198606e-17</v>
       </c>
     </row>
     <row r="99">
@@ -19030,26 +19044,26 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>-1.644154039071428</v>
+        <v>-1.62410901075471</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4743908927027638</v>
+        <v>0.4789109402636569</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.465821254923617</v>
+        <v>-3.391254770376685</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0005286145852057952</v>
+        <v>0.0006957339414284783</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>0.6313090786724792</v>
+        <v>0.6270026542566141</v>
       </c>
       <c r="K99" t="n">
-        <v>2.275463117743907</v>
+        <v>2.251111665011324</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001145331601279223</v>
+        <v>0.001507423539761703</v>
       </c>
     </row>
     <row r="100">
@@ -19066,26 +19080,26 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>0.7530218656316081</v>
+        <v>0.6512434802907197</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6195276162222073</v>
+        <v>0.6256661397641692</v>
       </c>
       <c r="G100" t="n">
-        <v>1.215477479798931</v>
+        <v>1.040880173787559</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2241840329103552</v>
+        <v>0.2979311643489577</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>-2.756107749203631</v>
+        <v>-2.78359191750638</v>
       </c>
       <c r="K100" t="n">
-        <v>-3.509129614835239</v>
+        <v>-3.4348353977971</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2914392427834617</v>
+        <v>0.3521004669578591</v>
       </c>
     </row>
     <row r="101">
@@ -19102,26 +19116,26 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>-1.267112611555609</v>
+        <v>-1.381095534900309</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4761584258646434</v>
+        <v>0.4806979830013903</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.661115592472595</v>
+        <v>-2.873104493339043</v>
       </c>
       <c r="H101" t="n">
-        <v>0.007788221472452735</v>
+        <v>0.004064596535640997</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>-2.826962328962319</v>
+        <v>-2.8668928233297</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.55984971740671</v>
+        <v>-1.48579728842939</v>
       </c>
       <c r="L101" t="n">
-        <v>0.01349958388558474</v>
+        <v>0.00754853642333328</v>
       </c>
     </row>
     <row r="102">
@@ -19138,26 +19152,26 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>1.323893627261209</v>
+        <v>1.276117120633088</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3491506974831563</v>
+        <v>0.3527985849131425</v>
       </c>
       <c r="G102" t="n">
-        <v>3.791754210443977</v>
+        <v>3.617126528291666</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0001495869232512511</v>
+        <v>0.0002978917047717302</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>1.035699484457496</v>
+        <v>1.014456568279674</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.288194142803713</v>
+        <v>-0.2616605523534141</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0004321400005036144</v>
+        <v>0.0008605760360072205</v>
       </c>
     </row>
     <row r="103">
@@ -19174,26 +19188,26 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>-1.864153303295764</v>
+        <v>-1.820289083810918</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3871563561100068</v>
+        <v>0.3908654767051964</v>
       </c>
       <c r="G103" t="n">
-        <v>-4.814988244093512</v>
+        <v>-4.657073065534105</v>
       </c>
       <c r="H103" t="n">
-        <v>1.472085561577256e-06</v>
+        <v>3.207366388431037e-06</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>-1.298756715346733</v>
+        <v>-1.28535982173455</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5653965879490314</v>
+        <v>0.5349292620763679</v>
       </c>
       <c r="L103" t="n">
-        <v>6.379037433501443e-06</v>
+        <v>1.389858768320116e-05</v>
       </c>
     </row>
     <row r="104">
@@ -19210,26 +19224,26 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>-1.603330320009595</v>
+        <v>-1.599092454945225</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4457629720868859</v>
+        <v>0.4501400087234663</v>
       </c>
       <c r="G104" t="n">
-        <v>-3.596822572551141</v>
+        <v>-3.55243351836249</v>
       </c>
       <c r="H104" t="n">
-        <v>0.000322128046777777</v>
+        <v>0.000381685454638562</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>-2.061538007783209</v>
+        <v>-2.065541367590469</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.4582076877736139</v>
+        <v>-0.4664489126452435</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0008375329216222204</v>
+        <v>0.0009923821820602614</v>
       </c>
     </row>
     <row r="105">
@@ -19246,26 +19260,26 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>-0.8943892982997896</v>
+        <v>-0.9305247312869462</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3448962408314005</v>
+        <v>0.3482495706743076</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.59321266054913</v>
+        <v>-2.672005393962705</v>
       </c>
       <c r="H105" t="n">
-        <v>0.009508395595047892</v>
+        <v>0.007539943643968708</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>-4.03889400488146</v>
+        <v>-4.041044424923991</v>
       </c>
       <c r="K105" t="n">
-        <v>-3.14450470658167</v>
+        <v>-3.110519693637044</v>
       </c>
       <c r="L105" t="n">
-        <v>0.01545114284195282</v>
+        <v>0.01274685533850162</v>
       </c>
     </row>
   </sheetData>
@@ -25150,4 +25164,3873 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AL32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CCD</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>total_counts</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>g_statistic</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Naive_High_prop</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Naive_Low_prop</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CM_High_prop</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CM_Low_prop</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>EM_High_prop</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>EM_Low_prop</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Naive_High_effect</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Naive_Low_effect</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CM_High_effect</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>CM_Low_effect</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EM_High_effect</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>EM_Low_effect</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Naive_High_se</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Naive_Low_se</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>CM_High_se</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>CM_Low_se</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>EM_High_se</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>EM_Low_se</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Naive_High_pip</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Naive_Low_pip</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>CM_High_pip</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>CM_Low_pip</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>EM_High_pip</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>EM_Low_pip</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>max_pip</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Naive_High_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Naive_Low_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>CM_High_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>CM_Low_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>EM_High_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>EM_Low_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>significant_pip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AGTRAP-1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4875.531376616835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2278072209340841</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1007784034448493</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.08616263663464724</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05510930771778735</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1635475322954621</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3665948989731699</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3100886930094657</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.4842238848822789</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.8341213370079679</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8675885910330072</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4067300895622084</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5373523244354631</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.015628407760677</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.02160692228626708</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.02312362696643211</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.02841225314266753</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.01775948693496602</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.01360824163660579</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANO6-2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3026.86382944351</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4364583333333333</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04930555555555555</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04236111111111111</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08368055555555555</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.271295725366003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.531590019425568</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.415786401172347</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1.127638586427613</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.416753581581647</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1.330690919688281</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.03768690838054939</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.09813140179129702</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.08611731055825825</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0925810300525948</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.03920705825191371</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.06734186645973762</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ARL6IP1-2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2956</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1837.926148677931</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05953991880920163</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1106224627875507</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.04803788903924222</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04296346414073072</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2902571041948579</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4485791610284168</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.242280433658392</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.3687692472953399</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.443282142556036</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.112939447130288</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.136623818628728</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8633185193679415</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.07778235391536886</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.05872183437266188</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.086060021429506</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.09077137475832915</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.04067509129472792</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0370713662575943</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9999999961166789</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ASIC2-2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4996.373688094478</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.21804850535815</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.09498025944726453</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0164692611393119</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0242526790750141</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2205301748448956</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4257191201353638</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2463692508515012</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.5424530285485307</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-2.555465714209352</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.711591993422116</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7732967494827858</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.77668251461363</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02588920497094943</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.03636089654157823</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.08350286864901284</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.06912840579301548</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0258589586142261</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02163580319630989</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAV1-2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6433</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1089.229716934597</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.87386150591479e-233</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2050365303901757</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.06078035131353956</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2226022073682574</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.06793098087983833</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0794341675734494</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3642157624747396</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1667933816654739</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.026722520841731</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2986270383835368</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.629656894935436</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.4285509328704094</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5134781117172866</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.03102125621719723</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0522765910814968</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03011750241667864</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.04966984206328327</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.04623952165033971</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.02603796412036569</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.242366984921834e-233</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.9999986311728608</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CLPTM1-1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13242</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3445.83010749032</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1345718169460806</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1160700800483311</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07106177314605044</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.09031868297840205</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1195438755475004</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4684337713336354</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3457987701621619</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3180956123130692</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.036142060522927</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3212218434329386</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02817187531486276</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9584910339221676</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02563381436400556</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.02731177624892537</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.03395239599289913</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.03051588277200626</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.02701678153657307</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01760844436525073</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3685370122625016</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ENTPD7-2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26939</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1142.230235400307</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.55972247383451e-245</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1574297486914882</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2027543709863024</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1545714391774008</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1415048813987156</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1391662645235532</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2045732952225398</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1622252774235289</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3614534324059593</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1577337955217681</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1976251448250952</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2099090659903076</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3014754333212029</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01699027808986036</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0154865430227528</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0171181428829292</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.01783200484503391</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0179603896831044</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01532736419424488</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.481756983444349e-244</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GABRA1-1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4369</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2037.095986082659</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2124055848020142</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1650263218127718</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3875028610666056</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03364614328221561</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01098649576562142</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1904325932707713</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2112335837459973</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.09608466002109828</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.096833774822537</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.368871418374566</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2.481244274169362</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3831505250703697</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.03710528853155934</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.04087654414975126</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.03119531510699755</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.08397336290841421</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1451791585135267</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0386171394388627</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9999997998562516</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8900690946891212</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GABRA6-1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.90846294387028</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1127714388430559</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9608977085212714</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.327711507268009</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.7560616389386641</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7695245446542276</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.2781379922808096</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.4381304277735074</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4432122750837741</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.023537393852222</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.7416257101813013</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5087587395941487</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7416280824529077</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5527767725436294</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1205487794529218</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.9765461872814731</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9415136122597697</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.9207108540610698</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.9397619185450168</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.8932418442670431</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.8912523192422669</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9765461872814731</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GABRP-1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.015329210583138</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4140122560546442</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1938775510204082</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1530612244897959</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2244897959183673</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1136651937739268</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.4579658818753536</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1215463627797257</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2825201484767446</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3903792812145264</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1737536229387666</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2733197246107992</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.3337265139613874</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2555357153282645</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.2805829402798799</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2733264282674168</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.2421137036603012</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4140122560546442</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.784194697629978</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9065138388915954</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.777655322482312</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.8473883481633996</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.8983485679672759</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.7924291404040429</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9065138388915954</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GABRR1-1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.91939619524007</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1607341655863539</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.187603336540123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6182520404116445</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.3993845726751899</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.04736360155912456</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.7515282424360448</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.2070158122333439</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.7303025964845126</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.4082602309142525</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5345306163706568</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5345336390988717</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.4276322674120837</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.4276257097717401</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1660919711058991</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9540943830914705</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.9315856122951349</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.8858673493926549</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.8603821590184405</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.9524258612988861</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.8489392803176441</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.9540943830914705</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GABRR3-1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>155.0708631784549</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.111164749760822e-31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-12.29510279691698</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-12.09874549221999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.8284030772962863</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-1.120286860073935</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.946700462881573</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-12.74963130777023</v>
+      </c>
+      <c r="R13" t="n">
+        <v>145.8650644597496</v>
+      </c>
+      <c r="S13" t="n">
+        <v>145.8650644638628</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.5227470785301004</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7226576974271245</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.4371145476464858</v>
+      </c>
+      <c r="W13" t="n">
+        <v>145.8650644530848</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.32485027856098e-31</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9385768020834775</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.938576801631259</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9456627195194198</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.94991244713262</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.9385768031582054</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GNRHR2-1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20390</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1709.327023154775</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1383030897498774</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1866110838646395</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1828837665522315</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1640019617459539</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1589995095635115</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1692005885237862</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.3163106958157924</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2516724547385476</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05093728154017918</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3755734200395096</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3696289418332999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.5373314105661955</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.02050019779840418</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.01825273149383794</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.01836080958473422</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.01923669481108603</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.01947835874796644</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.01885805214210711</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.915236755145773</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GPR82-1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26219</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4792.834249453119</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1512262100003814</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1517220336397269</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3031770853198062</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.03638582707197071</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.08516724512757924</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2723215988405355</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.2110518533924732</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.004471738686893323</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7446999824274225</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-1.309973555929707</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.3600566275451</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08597620606097756</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.01749132329158588</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.01750500247678793</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.01377342326371622</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.03316448905909136</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.02240643026808671</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.01411769277529326</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.1849586954566574</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.9999999499665346</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GRIK1-2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3395</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1580.333225219191</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3260677466863034</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2612665684830633</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03888070692194404</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02444771723122239</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.06362297496318114</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.7987356538160799</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6810651700315709</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-1.665107683557061</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-1.697070880441792</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.6667960450350612</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1503323900648563</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.03672893329399026</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.03919100988360241</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.08883091972588389</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1111848290422573</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.07040197472410188</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0380779991820468</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.9991305864682236</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GRIK2-2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8194</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2349.378872763467</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08847937515255065</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1160605320966561</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1246033683182817</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04783988284110324</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1768367097876495</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4461801318037589</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.8182873862414446</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3163632891035459</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.4066671859622719</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-1.004698356854558</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4926250521082813</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8602574489737689</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.03901025044316613</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.03463263680837752</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0335798630267647</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.05187655807445064</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.02916824697510461</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.02237391042542257</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GRIK3-2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2397</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1532.180593645553</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2886942010846892</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1134751773049645</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01877346683354193</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0262828535669587</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5135586149353358</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.6209926234157733</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.48448691242631</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.5104830851918696</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-1.965983537992455</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-1.590400977539235</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.124296656042216</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04516839760483445</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1052723824670864</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.06446527471551376</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1505301537597272</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.1277250538729054</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04094653113858715</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.9999999999999672</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HERPUD1-2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2378.242265691219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.005922165820642978</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.09306260575296109</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.005922165820642978</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.002538071065989848</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.002538071065989848</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8900169204737732</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-3.604388933050876</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.5606503538131193</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-3.578318731106505</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-3.982193656269583</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-3.95100435093575</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.161833255579674</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3790999323788592</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.1001673783127785</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3791001235057915</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.578094661465982</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.5780949099496406</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.09300273376566873</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.999999860338105</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.9999999994046245</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.9999999991946195</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HTR3B-1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>120</v>
+      </c>
+      <c r="C20" t="n">
+        <v>176.4496106668668</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.065959913156161e-36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.176846113620261</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-2.360862265614982</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-2.117179112942419</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-2.084413393607259</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-2.754828238585762</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.09657213974131029</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.1925020121110388</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.7130808688697661</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.5847127809101814</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.7130823948527552</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.004198971375653</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2044599931095527</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.80179029231364e-36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.9978177589987781</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.9992661047587333</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.9946504705197036</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.9891654716074837</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.7382413451722851</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MUL1-1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>458</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.90534552172018</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.000545740908560922</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1790393013100437</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1681222707423581</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1899563318777293</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1331877729257642</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1572052401746725</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1724890829694323</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.00239243113377352</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1179106695391781</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09630295747958995</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.1202819488870004</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.345509704718123</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.5023838431757011</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1219149304711111</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1249857587316694</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.1191569127367071</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.1375655006254475</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.1284203412347937</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.1237067412415876</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.0006265914135329105</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.6035827254969791</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.7078994914083304</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.6728410858101369</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.7144477038680561</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.9828951719602678</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.9998153098617806</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.9998153098617806</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P2RX1-2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>64251</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3321.112400417613</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2277629920156885</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1279201880126379</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1180370733529439</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1484023594963503</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1198113648036606</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2580660223187188</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3286724170205713</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.2191459857738514</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.4991972167688421</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2700527965839739</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.03293005026737128</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.01078732490529721</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.00989778981524877</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.01224753358675591</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.01259975757599967</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01167760711750319</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01268466168508852</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.009406178400365218</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.8222413119915607</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.185548323361344</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P2RX3-1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>433</v>
+      </c>
+      <c r="C23" t="n">
+        <v>904.8668652006277</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.353919965697479e-193</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06466512702078522</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03695150115473441</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06235565819861432</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03464203233256351</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.7367205542725174</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.06466512702078522</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-1.151628566992384</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.544150670079234</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-1.16440306768678</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-1.334599882637605</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.056731463048047</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-1.606272677443891</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1954276663573015</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.2547701560769348</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.1987681750450819</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.2628135057186271</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.10917406264971</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1954226903736149</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.172674736374863e-193</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.999999981607154</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.9999999927199186</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.9999999775999908</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.9999986157828216</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.9999999999999979</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P2RX4-2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>73829</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2419.992892836129</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.211488710398353</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1913882078857901</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1389426918961384</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1178398732205502</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.09801026696826451</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2423302496309039</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2269996050321341</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.307191634300815</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.3032743566678873</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.02178393332090667</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.213483367225153</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.08141591398190728</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.009528117771139133</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.009925120385706039</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.01107438583850408</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.01197594344408162</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01290308585049357</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.009001431887047393</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.4400186942561555</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P2RX6-2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>306</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21.69643816447654</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0005979318047340727</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1699346405228758</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1633986928104575</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1699346405228758</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1633986928104575</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.06563645249344674</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08371258682154514</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.006096961862911421</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4073638831653457</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3428457522390336</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.5673842252831043</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1522377390537873</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.1546479966276541</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.1499848982460706</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1522488373397964</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.1572307884854676</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.1546378236404814</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.0006619959266698661</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.6750443544979002</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6898082419136803</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.65151574505623</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.9846940994525919</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.9530102551802231</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.9993108444580643</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.9993108444580643</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RTN4-2</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16037</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1885.720667511037</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1183513125896365</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1521481573860448</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.247116044147908</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.07083619130760117</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.07501403005549666</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.336534264513313</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.4961749903624413</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.001038245481510103</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.4426986849589836</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.590187086853472</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.4959471866266987</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3958860484187823</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.02462263878253149</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.02221106129857231</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.01854962895209162</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.03097538001634926</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.03018365293186031</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.01691278986467812</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.2181303460282948</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SLC11A1-2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>30912</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6007.938508386685</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0811335403726708</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2321752070393375</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1930318322981366</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.07783385093167702</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3234342650103519</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.9333520966491202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.58660359674176</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3663757831671479</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.5911922248920853</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.4628568450743269</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3422622475478123</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.02103983863641553</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01989462825386535</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.01380600513377308</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01484438521503282</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02152366393594295</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01244006613642747</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SLC20A2-1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>181544</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3385.85787904416</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1495284889613537</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1641695677081038</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1746683999471202</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1438384083197462</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1203344643722734</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2474606706914026</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.2767785350543051</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1168462170950677</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.008233518541822527</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.2784292837397371</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.04579164833772831</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.05973846105865577</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.007347760880373516</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.00728176680942039</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.00703309840715748</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.007811835186240048</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.008245909550966829</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.006171178511134524</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.1490240652102346</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.9999980549151565</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TRAM1-2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>247365</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7099.306551137011</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.200885331392881</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1531542457502072</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2024093950235482</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1114143067936046</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1161118185677036</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2160249024720555</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.2071614644512287</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.009827335532970771</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2613875777287105</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.11900500099741</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.007721807921390322</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.3161708589908006</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.006176835913437147</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.006734629229961262</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.006197131711449069</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.007595105990079655</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.007555812770672075</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.005748885501326139</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.1968295823512593</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.1378072164518705</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>XPR1-2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24738</v>
+      </c>
+      <c r="C30" t="n">
+        <v>872.1063567135045</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.895188865202229e-186</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1641199773627617</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1326299620017787</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1560756730536018</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1559544021343682</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.08682997817123454</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3043900072762551</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.1107383084236957</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.1659516333071853</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.1455071613116568</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.3156495923236842</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.3377844565167853</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.2476257008149653</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.01742041391772464</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01901099745242928</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.01777211162006779</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.01787474165622897</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.02285459280495275</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.01406266822999594</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.739618950886213e-186</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.9999999922829105</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.9999999999999875</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ZACN-1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2181</v>
+      </c>
+      <c r="C31" t="n">
+        <v>992.2686535851449</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.835793990725018e-212</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1228794131132508</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2599724896836313</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1192113709307657</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02063273727647868</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.02613480055020633</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4511691884456671</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4460183594363007</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.673020237934657</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4544513985237506</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-1.869342564602895</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-1.595966635783462</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.8728284705616802</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.06528896609187164</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0489186924450681</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.06614701638641306</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1506728956129435</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.1342642648402763</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.04310816520776892</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.995891532385252e-212</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.9999999999040073</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.9999999999272164</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ZDHHC5-1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>608</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1848.093611339129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.004934210526315789</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01480263157894737</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9605263157894737</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.004934210526315789</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.004934210526315789</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.009868421052631578</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-3.787044539681562</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-2.482018440299385</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.7425446699364</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-3.314178371616431</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-3.282992095661919</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-3.543529773865894</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5787873326161348</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3358426878899268</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.208297190256658</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5787902492095547</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5787904974020669</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.4102857573261884</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.9999999960202485</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.9999999999976594</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.9999997626201301</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.9999996950456547</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>